--- a/tests_data/test1.xlsx
+++ b/tests_data/test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aazaizh\PycharmProjects\RestApiAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aazaizh\PycharmProjects\RestApiAutomation\tests_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261410BE-5C8A-40AA-9868-5A3918070B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C850D1A7-004F-4190-90CC-F9693B4E7578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{99F53E12-D06B-49BE-A8F1-FAA4C931BDD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99F53E12-D06B-49BE-A8F1-FAA4C931BDD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>https://jsonplaceholder.typicode.com/todos/1</t>
   </si>
   <si>
-    <t>my test 1</t>
-  </si>
-  <si>
     <t>length</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check 1 2 3 </t>
   </si>
 </sst>
 </file>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B4FD62-25CF-4090-A547-E83110D06FE6}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,24 +470,24 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -521,6 +521,9 @@
       <c r="D3">
         <v>4</v>
       </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
